--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,28 +540,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.37787633333333</v>
+        <v>32.544082</v>
       </c>
       <c r="H2">
-        <v>130.133629</v>
+        <v>97.63224599999999</v>
       </c>
       <c r="I2">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="J2">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.02179466666666667</v>
+        <v>0.407336</v>
       </c>
       <c r="N2">
-        <v>0.065384</v>
+        <v>0.814672</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9454063553928888</v>
+        <v>13.256376185552</v>
       </c>
       <c r="R2">
-        <v>8.508657198536</v>
+        <v>79.53825711331199</v>
       </c>
       <c r="S2">
-        <v>0.7368947826495649</v>
+        <v>0.621589875979724</v>
       </c>
       <c r="T2">
-        <v>0.7461349005127409</v>
+        <v>0.6366365948489335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -608,22 +608,22 @@
         <v>0.732741</v>
       </c>
       <c r="I3">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="J3">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.02179466666666667</v>
+        <v>0.407336</v>
       </c>
       <c r="N3">
-        <v>0.065384</v>
+        <v>0.814672</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.005323281949333333</v>
+        <v>0.099490595992</v>
       </c>
       <c r="R3">
-        <v>0.047909537544</v>
+        <v>0.596943575952</v>
       </c>
       <c r="S3">
-        <v>0.004149219721932329</v>
+        <v>0.004665102012661462</v>
       </c>
       <c r="T3">
-        <v>0.00420124788141124</v>
+        <v>0.004778029332093849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,28 +664,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.648633666666666</v>
+        <v>6.619872666666667</v>
       </c>
       <c r="H4">
-        <v>22.945901</v>
+        <v>19.859618</v>
       </c>
       <c r="I4">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="J4">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02179466666666667</v>
+        <v>0.407336</v>
       </c>
       <c r="N4">
-        <v>0.065384</v>
+        <v>0.814672</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1666994212204444</v>
+        <v>2.696512452549333</v>
       </c>
       <c r="R4">
-        <v>1.500294790984</v>
+        <v>16.179074715296</v>
       </c>
       <c r="S4">
-        <v>0.129933475766617</v>
+        <v>0.126439142756428</v>
       </c>
       <c r="T4">
-        <v>0.1315627458587988</v>
+        <v>0.1294998332673878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,28 +726,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.186977</v>
+        <v>3.71227</v>
       </c>
       <c r="H5">
-        <v>4.373953999999999</v>
+        <v>7.42454</v>
       </c>
       <c r="I5">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="J5">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02179466666666667</v>
+        <v>0.407336</v>
       </c>
       <c r="N5">
-        <v>0.065384</v>
+        <v>0.814672</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.04766443472266666</v>
+        <v>1.51214121272</v>
       </c>
       <c r="R5">
-        <v>0.285986608336</v>
+        <v>6.04856485088</v>
       </c>
       <c r="S5">
-        <v>0.03715193267394235</v>
+        <v>0.07090411857072049</v>
       </c>
       <c r="T5">
-        <v>0.02507852703191198</v>
+        <v>0.04841365488938666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,28 +788,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.408032666666666</v>
+        <v>9.235725333333333</v>
       </c>
       <c r="H6">
-        <v>16.224098</v>
+        <v>27.707176</v>
       </c>
       <c r="I6">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="J6">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02179466666666667</v>
+        <v>0.407336</v>
       </c>
       <c r="N6">
-        <v>0.065384</v>
+        <v>0.814672</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.1178662692924444</v>
+        <v>3.762043414378666</v>
       </c>
       <c r="R6">
-        <v>1.060796423632</v>
+        <v>22.572260486272</v>
       </c>
       <c r="S6">
-        <v>0.09187058918794343</v>
+        <v>0.176401760680466</v>
       </c>
       <c r="T6">
-        <v>0.09302257871513718</v>
+        <v>0.1806718876621981</v>
       </c>
     </row>
   </sheetData>
